--- a/csv/main-files/Bhavani Peth.xlsx
+++ b/csv/main-files/Bhavani Peth.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="261">
   <si>
     <t>Prabhag 39A : Sonam Zhende</t>
   </si>
@@ -798,9 +798,6 @@
     <t>Providing Computers</t>
   </si>
   <si>
-    <t>2014-2015</t>
-  </si>
-  <si>
     <t>84/116</t>
   </si>
   <si>
@@ -13570,7 +13567,7 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>258</v>
+        <v>39</v>
       </c>
       <c r="B21" s="8">
         <v>1.0</v>
@@ -13588,7 +13585,7 @@
         <v>0.0</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22">
@@ -13618,7 +13615,7 @@
         <v>3.0</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D23" s="10">
         <v>147000.0</v>
@@ -13631,7 +13628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>258</v>
+        <v>39</v>
       </c>
       <c r="B24" s="8">
         <v>4.0</v>
@@ -13650,7 +13647,7 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>258</v>
+        <v>39</v>
       </c>
       <c r="B25" s="8">
         <v>5.0</v>
@@ -13701,7 +13698,7 @@
         <v>0.0</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
